--- a/文档/测试工作相关/IT端到端测试相关/测试内容相关/2019/20191219/CRM中SD-WAN国内组网（679）正装流程开发需求（196038100）/测试报告_CRM中SD-WAN国内组网（679）正装流程开发需求（196038100）.xlsx
+++ b/文档/测试工作相关/IT端到端测试相关/测试内容相关/2019/20191219/CRM中SD-WAN国内组网（679）正装流程开发需求（196038100）/测试报告_CRM中SD-WAN国内组网（679）正装流程开发需求（196038100）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="测试概览" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'BUG汇总 '!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">测试案例!$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">测试案例!$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测试概览!$A$1:$H$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>序号</t>
   </si>
@@ -47,9 +47,6 @@
     <t>问题数</t>
   </si>
   <si>
-    <t>测试人</t>
-  </si>
-  <si>
     <t>需求描述</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t>bug状态</t>
-  </si>
-  <si>
-    <t>张轶晟</t>
   </si>
   <si>
     <t>问题序号</t>
@@ -231,10 +225,6 @@
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张轶晟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -373,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,9 +455,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -790,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -809,7 +796,7 @@
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -834,12 +821,9 @@
       <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -847,7 +831,7 @@
         <v>196038100</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="22">
@@ -861,13 +845,10 @@
         <v>0.5</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -876,7 +857,6 @@
       <c r="F3" s="22"/>
       <c r="G3" s="23"/>
       <c r="H3" s="24"/>
-      <c r="I3" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -887,10 +867,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -901,15 +881,14 @@
     <col min="4" max="4" width="41.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" customWidth="1"/>
-    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -917,176 +896,161 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="337.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:11" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="34" t="s">
-        <v>24</v>
+      <c r="B2" s="31"/>
+      <c r="C2" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="26">
         <v>43819</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>26</v>
+      <c r="G2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="378" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="378" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="35"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="26">
         <v>43819</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="148.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:11" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="27"/>
-      <c r="C4" s="35"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="26">
         <v>43819</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="189" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:11" ht="189" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="27"/>
-      <c r="C5" s="36"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="26">
         <v>43819</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>43</v>
+      <c r="I5" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1"/>
+  <autoFilter ref="H1"/>
   <mergeCells count="2">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C5"/>
@@ -1120,31 +1084,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="J1"/>
     </row>
